--- a/lowe/edd/data/RIVEHWS.xlsx
+++ b/lowe/edd/data/RIVEHWS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1373,14 +1373,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JH54"/>
+  <dimension ref="A1:JI54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -1390,12 +1390,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44456.697581018518</v>
+        <v>44491.610081018516</v>
       </c>
     </row>
-    <row r="2" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1405,14 +1405,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1420,12 +1420,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1438,7 +1438,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2240,11 +2240,14 @@
       <c r="JG8" s="8">
         <v>44378</v>
       </c>
-      <c r="JH8" s="9">
+      <c r="JH8" s="8">
         <v>44409</v>
       </c>
+      <c r="JI8" s="9">
+        <v>44440</v>
+      </c>
     </row>
-    <row r="9" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3047,8 +3050,11 @@
       <c r="JH9" s="11">
         <v>1113200</v>
       </c>
+      <c r="JI9" s="11">
+        <v>1114900</v>
+      </c>
     </row>
-    <row r="10" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3849,10 +3855,13 @@
         <v>1035100</v>
       </c>
       <c r="JH10" s="11">
-        <v>1028400</v>
+        <v>1028200</v>
+      </c>
+      <c r="JI10" s="11">
+        <v>1041500</v>
       </c>
     </row>
-    <row r="11" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4653,10 +4662,13 @@
         <v>88500</v>
       </c>
       <c r="JH11" s="11">
-        <v>84700</v>
+        <v>85000</v>
+      </c>
+      <c r="JI11" s="11">
+        <v>73400</v>
       </c>
     </row>
-    <row r="12" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5459,8 +5471,11 @@
       <c r="JH12" s="12">
         <v>7.5999999999999998E-2</v>
       </c>
+      <c r="JI12" s="12">
+        <v>6.6000000000000003E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6240,7 +6255,7 @@
         <v>731100</v>
       </c>
     </row>
-    <row r="14" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7020,7 +7035,7 @@
         <v>11500</v>
       </c>
     </row>
-    <row r="15" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7800,7 +7815,7 @@
         <v>719600</v>
       </c>
     </row>
-    <row r="16" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>

--- a/lowe/edd/data/RIVEHWS.xlsx
+++ b/lowe/edd/data/RIVEHWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1373,7 +1373,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JI54"/>
+  <dimension ref="A1:JJ54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1390,12 +1390,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44491.610081018516</v>
+        <v>44519.49428240741</v>
       </c>
     </row>
-    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1405,14 +1405,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1420,12 +1420,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1438,7 +1438,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2243,11 +2243,14 @@
       <c r="JH8" s="8">
         <v>44409</v>
       </c>
-      <c r="JI8" s="9">
+      <c r="JI8" s="8">
         <v>44440</v>
       </c>
+      <c r="JJ8" s="9">
+        <v>44470</v>
+      </c>
     </row>
-    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3051,10 +3054,13 @@
         <v>1113200</v>
       </c>
       <c r="JI9" s="11">
-        <v>1114900</v>
+        <v>1116900</v>
+      </c>
+      <c r="JJ9" s="11">
+        <v>1125800</v>
       </c>
     </row>
-    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3858,10 +3864,13 @@
         <v>1028200</v>
       </c>
       <c r="JI10" s="11">
-        <v>1041500</v>
+        <v>1043300</v>
+      </c>
+      <c r="JJ10" s="11">
+        <v>1055300</v>
       </c>
     </row>
-    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4665,10 +4674,13 @@
         <v>85000</v>
       </c>
       <c r="JI11" s="11">
-        <v>73400</v>
+        <v>73600</v>
+      </c>
+      <c r="JJ11" s="11">
+        <v>70500</v>
       </c>
     </row>
-    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5474,8 +5486,11 @@
       <c r="JI12" s="12">
         <v>6.6000000000000003E-2</v>
       </c>
+      <c r="JJ12" s="12">
+        <v>6.3E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6255,7 +6270,7 @@
         <v>731100</v>
       </c>
     </row>
-    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7035,7 +7050,7 @@
         <v>11500</v>
       </c>
     </row>
-    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7815,7 +7830,7 @@
         <v>719600</v>
       </c>
     </row>
-    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>

--- a/lowe/edd/data/RIVEHWS.xlsx
+++ b/lowe/edd/data/RIVEHWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -305,7 +305,7 @@
     <t>70-720000</t>
   </si>
   <si>
-    <t xml:space="preserve">          Accommodation &amp; Food Services</t>
+    <t xml:space="preserve">        Accommodation &amp; Food Services</t>
   </si>
   <si>
     <t>811000-813000</t>
@@ -1373,7 +1373,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JJ54"/>
+  <dimension ref="A1:JL54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1390,12 +1390,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44519.49428240741</v>
+        <v>44582.472731481481</v>
       </c>
     </row>
-    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1405,14 +1405,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1420,12 +1420,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:272" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1438,7 +1438,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2246,11 +2246,17 @@
       <c r="JI8" s="8">
         <v>44440</v>
       </c>
-      <c r="JJ8" s="9">
+      <c r="JJ8" s="8">
         <v>44470</v>
       </c>
+      <c r="JK8" s="8">
+        <v>44501</v>
+      </c>
+      <c r="JL8" s="9">
+        <v>44531</v>
+      </c>
     </row>
-    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3057,10 +3063,16 @@
         <v>1116900</v>
       </c>
       <c r="JJ9" s="11">
-        <v>1125800</v>
+        <v>1125600</v>
+      </c>
+      <c r="JK9" s="11">
+        <v>1130400</v>
+      </c>
+      <c r="JL9" s="11">
+        <v>1129100</v>
       </c>
     </row>
-    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3867,10 +3879,16 @@
         <v>1043300</v>
       </c>
       <c r="JJ10" s="11">
-        <v>1055300</v>
+        <v>1055000</v>
+      </c>
+      <c r="JK10" s="11">
+        <v>1069400</v>
+      </c>
+      <c r="JL10" s="11">
+        <v>1071600</v>
       </c>
     </row>
-    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4677,10 +4695,16 @@
         <v>73600</v>
       </c>
       <c r="JJ11" s="11">
-        <v>70500</v>
+        <v>70600</v>
+      </c>
+      <c r="JK11" s="11">
+        <v>61000</v>
+      </c>
+      <c r="JL11" s="11">
+        <v>57500</v>
       </c>
     </row>
-    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5489,8 +5513,14 @@
       <c r="JJ12" s="12">
         <v>6.3E-2</v>
       </c>
+      <c r="JK12" s="12">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="JL12" s="12">
+        <v>5.0999999999999997E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6270,7 +6300,7 @@
         <v>731100</v>
       </c>
     </row>
-    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7050,7 +7080,7 @@
         <v>11500</v>
       </c>
     </row>
-    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7830,7 +7860,7 @@
         <v>719600</v>
       </c>
     </row>
-    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
